--- a/data/trans_orig/P15B_3_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4755</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1897</v>
+        <v>1919</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7522</v>
+        <v>7501</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.511575260564171</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2040833097808644</v>
+        <v>0.2064956161887817</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.809345651210476</v>
+        <v>0.807058149453632</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>4754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1769</v>
+        <v>1872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8893</v>
+        <v>9203</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2902327937739935</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1079864739899324</v>
+        <v>0.1142589438664048</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5428760887252455</v>
+        <v>0.5617856163933493</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>4539</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1772</v>
+        <v>1793</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7397</v>
+        <v>7375</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4884247394358289</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.190654348789524</v>
+        <v>0.1929418505463681</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7959166902191355</v>
+        <v>0.7935043838112182</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -841,19 +841,19 @@
         <v>11627</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7488</v>
+        <v>7178</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14612</v>
+        <v>14509</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7097672062260065</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4571239112747544</v>
+        <v>0.4382143836066506</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8920135260100677</v>
+        <v>0.8857410561335952</v>
       </c>
     </row>
     <row r="6">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5014</v>
+        <v>5145</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2188302791098684</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5594035365348698</v>
+        <v>0.5739510128547962</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5880</v>
+        <v>5990</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1166483570494485</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3496977476184367</v>
+        <v>0.3562536249992033</v>
       </c>
     </row>
     <row r="8">
@@ -1021,7 +1021,7 @@
         <v>7002</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3950</v>
+        <v>3819</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>8964</v>
@@ -1030,7 +1030,7 @@
         <v>0.7811697208901316</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4405964634651303</v>
+        <v>0.4260489871452038</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>14854</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10935</v>
+        <v>10825</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>16815</v>
@@ -1051,7 +1051,7 @@
         <v>0.8833516429505515</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6503022523815629</v>
+        <v>0.6437463750007968</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1146,19 +1146,19 @@
         <v>2941</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>802</v>
+        <v>841</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7009</v>
+        <v>7390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1613350289830639</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04397002037822747</v>
+        <v>0.04616150826887934</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3844979151746235</v>
+        <v>0.4053946359736773</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>2941</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7597</v>
+        <v>7444</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1310963255480795</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03951239205514718</v>
+        <v>0.03952189196360114</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3386445267988554</v>
+        <v>0.33181959078602</v>
       </c>
     </row>
     <row r="11">
@@ -1209,19 +1209,19 @@
         <v>15288</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11220</v>
+        <v>10839</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17427</v>
+        <v>17388</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.838664971016936</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6155020848253763</v>
+        <v>0.5946053640263228</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9560299796217725</v>
+        <v>0.9538384917311207</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1243,19 +1243,19 @@
         <v>19493</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14837</v>
+        <v>14990</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21548</v>
+        <v>21547</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8689036744519205</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6613554732011439</v>
+        <v>0.6681804092139798</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9604876079448529</v>
+        <v>0.9604781080363988</v>
       </c>
     </row>
     <row r="12">
@@ -1347,19 +1347,19 @@
         <v>4832</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1917</v>
+        <v>1863</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9386</v>
+        <v>8740</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2711939651409943</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1076097284550024</v>
+        <v>0.1045679318903189</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5267651945278229</v>
+        <v>0.4905246712190664</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>4832</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1773</v>
+        <v>1909</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9662</v>
+        <v>10585</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1750077489514702</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06419758054011256</v>
+        <v>0.06913873954528341</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3499368306142733</v>
+        <v>0.3833792712253772</v>
       </c>
     </row>
     <row r="14">
@@ -1410,19 +1410,19 @@
         <v>12986</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8432</v>
+        <v>9078</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15901</v>
+        <v>15955</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7288060348590057</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4732348054721773</v>
+        <v>0.5094753287809333</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8923902715449975</v>
+        <v>0.8954320681096811</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1444,19 +1444,19 @@
         <v>22779</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17949</v>
+        <v>17026</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25838</v>
+        <v>25702</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8249922510485298</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6500631693857267</v>
+        <v>0.6166207287746226</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9358024194598873</v>
+        <v>0.9308612604547166</v>
       </c>
     </row>
     <row r="15">
@@ -1548,19 +1548,19 @@
         <v>3143</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>872</v>
+        <v>932</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5553</v>
+        <v>6371</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4293840797459257</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1191155655775283</v>
+        <v>0.1272819334350769</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7586511209369602</v>
+        <v>0.8704910078699872</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4508</v>
+        <v>4448</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1306248300040848</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5774554226970526</v>
+        <v>0.569793837115002</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1590,19 +1590,19 @@
         <v>4162</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>974</v>
+        <v>1185</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8120</v>
+        <v>8626</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2751896526589756</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06440267414077858</v>
+        <v>0.07834810816278254</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5368862308286698</v>
+        <v>0.5703079823365886</v>
       </c>
     </row>
     <row r="17">
@@ -1619,19 +1619,19 @@
         <v>4176</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1766</v>
+        <v>948</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6447</v>
+        <v>6387</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5706159202540743</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2413488790630398</v>
+        <v>0.1295089921300128</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8808844344224717</v>
+        <v>0.8727180665649229</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1640,7 +1640,7 @@
         <v>6786</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3298</v>
+        <v>3358</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>7806</v>
@@ -1649,7 +1649,7 @@
         <v>0.8693751699959152</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4225445773029474</v>
+        <v>0.4302061628849986</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1661,19 +1661,19 @@
         <v>10963</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7005</v>
+        <v>6499</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14151</v>
+        <v>13940</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7248103473410243</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4631137691713301</v>
+        <v>0.4296920176634115</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9355973258592214</v>
+        <v>0.9216518918372184</v>
       </c>
     </row>
     <row r="18">
@@ -1765,19 +1765,19 @@
         <v>5961</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2351</v>
+        <v>2927</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8096</v>
+        <v>8139</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6702836800794355</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2643977757837945</v>
+        <v>0.3291897385574081</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9103684533746044</v>
+        <v>0.9151598762784677</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4277</v>
+        <v>4304</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09719066072975782</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.403461054416076</v>
+        <v>0.4059871988725823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1807,19 +1807,19 @@
         <v>6991</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3075</v>
+        <v>3116</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11857</v>
+        <v>11999</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3586109534039604</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1577383022995558</v>
+        <v>0.1598389673211955</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6082128562710085</v>
+        <v>0.6155061219059736</v>
       </c>
     </row>
     <row r="20">
@@ -1836,19 +1836,19 @@
         <v>2932</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>797</v>
+        <v>754</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6542</v>
+        <v>5966</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3297163199205645</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08963154662539564</v>
+        <v>0.08484012372153224</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7356022242162055</v>
+        <v>0.6708102614425919</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1857,7 +1857,7 @@
         <v>9572</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6325</v>
+        <v>6298</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>10602</v>
@@ -1866,7 +1866,7 @@
         <v>0.9028093392702422</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5965389455839241</v>
+        <v>0.5940128011274174</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1878,19 +1878,19 @@
         <v>12504</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7638</v>
+        <v>7496</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16420</v>
+        <v>16379</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6413890465960396</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3917871437289913</v>
+        <v>0.3844938780940264</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8422616977004443</v>
+        <v>0.8401610326788046</v>
       </c>
     </row>
     <row r="21">
@@ -1982,19 +1982,19 @@
         <v>10528</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5455</v>
+        <v>5241</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16098</v>
+        <v>16156</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.385852746896633</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1999369029482428</v>
+        <v>0.1920898394128415</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5900020531325371</v>
+        <v>0.5921307898125568</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2003,19 +2003,19 @@
         <v>4330</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8776</v>
+        <v>8968</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2351403692354246</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05312928766199086</v>
+        <v>0.05320907678616906</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4765941197364965</v>
+        <v>0.4870155078484905</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -2024,19 +2024,19 @@
         <v>14858</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8948</v>
+        <v>8404</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22620</v>
+        <v>22062</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3251204327260858</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1957884364027587</v>
+        <v>0.1839031207942592</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4949726551611984</v>
+        <v>0.4827652232632157</v>
       </c>
     </row>
     <row r="23">
@@ -2053,19 +2053,19 @@
         <v>16756</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11186</v>
+        <v>11128</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21829</v>
+        <v>22043</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.614147253103367</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.409997946867463</v>
+        <v>0.4078692101874432</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8000630970517572</v>
+        <v>0.8079101605871586</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -2074,19 +2074,19 @@
         <v>14085</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9639</v>
+        <v>9447</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17437</v>
+        <v>17435</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7648596307645754</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5234058802635035</v>
+        <v>0.5129844921515093</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9468707123380091</v>
+        <v>0.946790923213831</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>31</v>
@@ -2095,19 +2095,19 @@
         <v>30842</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>23080</v>
+        <v>23638</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>36752</v>
+        <v>37296</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6748795672739142</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5050273448388014</v>
+        <v>0.5172347767367844</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8042115635972413</v>
+        <v>0.8160968792057408</v>
       </c>
     </row>
     <row r="24">
@@ -2199,19 +2199,19 @@
         <v>7335</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3225</v>
+        <v>3215</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12940</v>
+        <v>11969</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2779381577305497</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1222118299661975</v>
+        <v>0.1218298005277913</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4903440369026677</v>
+        <v>0.4535641127093249</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4733</v>
+        <v>6568</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04253988879695057</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1757219160585736</v>
+        <v>0.2438686356057589</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2241,19 +2241,19 @@
         <v>8480</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4179</v>
+        <v>4227</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15062</v>
+        <v>16210</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1590376376312259</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07837230914737089</v>
+        <v>0.079264638573445</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2824699452383079</v>
+        <v>0.3040024470373825</v>
       </c>
     </row>
     <row r="26">
@@ -2270,19 +2270,19 @@
         <v>19054</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13449</v>
+        <v>14420</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23164</v>
+        <v>23174</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7220618422694504</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5096559630973323</v>
+        <v>0.5464358872906749</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8777881700338026</v>
+        <v>0.8781701994722086</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -2291,7 +2291,7 @@
         <v>25787</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22200</v>
+        <v>20365</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>26933</v>
@@ -2300,7 +2300,7 @@
         <v>0.9574601112030494</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8242780839414265</v>
+        <v>0.7561313643942411</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2312,19 +2312,19 @@
         <v>44842</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>38260</v>
+        <v>37112</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>49143</v>
+        <v>49095</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8409623623687741</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7175300547616922</v>
+        <v>0.6959975529626163</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9216276908526292</v>
+        <v>0.920735361426555</v>
       </c>
     </row>
     <row r="27">
@@ -2416,19 +2416,19 @@
         <v>39493</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29359</v>
+        <v>30048</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>50898</v>
+        <v>51287</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3208790836050793</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2385407911320321</v>
+        <v>0.2441374983923758</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4135438132681385</v>
+        <v>0.4167038430676636</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -2437,19 +2437,19 @@
         <v>9488</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4998</v>
+        <v>4701</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16955</v>
+        <v>16412</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1011406918914414</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05327803248584367</v>
+        <v>0.05011854096064003</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1807475109307728</v>
+        <v>0.1749567541905621</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>47</v>
@@ -2458,19 +2458,19 @@
         <v>48980</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>36902</v>
+        <v>37070</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>62450</v>
+        <v>62490</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.225838107838174</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1701465577093595</v>
+        <v>0.1709232208426756</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2879433517052797</v>
+        <v>0.2881289615526597</v>
       </c>
     </row>
     <row r="29">
@@ -2487,19 +2487,19 @@
         <v>83584</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>72179</v>
+        <v>71790</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>93718</v>
+        <v>93029</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6791209163949207</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5864561867318614</v>
+        <v>0.5832961569323362</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7614592088679678</v>
+        <v>0.7558625016076239</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>81</v>
@@ -2508,19 +2508,19 @@
         <v>84318</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>76851</v>
+        <v>77394</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>88808</v>
+        <v>89105</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8988593081085585</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8192524890692258</v>
+        <v>0.8250432458094369</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9467219675141563</v>
+        <v>0.9498814590393595</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>162</v>
@@ -2529,19 +2529,19 @@
         <v>167903</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>154433</v>
+        <v>154393</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>179981</v>
+        <v>179813</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.774161892161826</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7120566482947203</v>
+        <v>0.7118710384473403</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8298534422906405</v>
+        <v>0.8290767791573244</v>
       </c>
     </row>
     <row r="30">
@@ -2877,19 +2877,19 @@
         <v>4041</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>945</v>
+        <v>1047</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9308</v>
+        <v>9494</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1090980700505218</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02552281498355107</v>
+        <v>0.02827340921216931</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2513113681984644</v>
+        <v>0.2563482468768545</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6190</v>
+        <v>6142</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07148027985946896</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.224076037711733</v>
+        <v>0.2223536166802036</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2919,19 +2919,19 @@
         <v>6015</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2020</v>
+        <v>1991</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12138</v>
+        <v>11869</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09302735283666248</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03124699332133238</v>
+        <v>0.03079769606369328</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1877271583312024</v>
+        <v>0.1835529019538539</v>
       </c>
     </row>
     <row r="5">
@@ -2948,19 +2948,19 @@
         <v>32996</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27729</v>
+        <v>27543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36092</v>
+        <v>35990</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8909019299494783</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.748688631801535</v>
+        <v>0.7436517531231456</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9744771850164489</v>
+        <v>0.9717265907878306</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -2969,7 +2969,7 @@
         <v>25649</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21433</v>
+        <v>21481</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>27623</v>
@@ -2978,7 +2978,7 @@
         <v>0.9285197201405311</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7759239622882671</v>
+        <v>0.7776463833197962</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2990,19 +2990,19 @@
         <v>58645</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>52522</v>
+        <v>52791</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62640</v>
+        <v>62669</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9069726471633375</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8122728416687977</v>
+        <v>0.8164470980461463</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9687530066786676</v>
+        <v>0.9692023039363067</v>
       </c>
     </row>
     <row r="6">
@@ -3094,19 +3094,19 @@
         <v>2841</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>917</v>
+        <v>894</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7783</v>
+        <v>7541</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08869559382048836</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02862915358206778</v>
+        <v>0.02790801879359512</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2429916646842851</v>
+        <v>0.2354534067268934</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -3128,19 +3128,19 @@
         <v>2841</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>930</v>
+        <v>905</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7825</v>
+        <v>7439</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04560934189212231</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01493204381320512</v>
+        <v>0.01453191399531271</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1256388881965051</v>
+        <v>0.1194293075350948</v>
       </c>
     </row>
     <row r="8">
@@ -3157,19 +3157,19 @@
         <v>29187</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>24245</v>
+        <v>24487</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>31111</v>
+        <v>31134</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9113044061795117</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7570083353157153</v>
+        <v>0.7645465932731063</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9713708464179323</v>
+        <v>0.9720919812064048</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -3191,19 +3191,19 @@
         <v>59443</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>54459</v>
+        <v>54845</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>61354</v>
+        <v>61379</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9543906581078777</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.874361111803495</v>
+        <v>0.8805706924649043</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9850679561867949</v>
+        <v>0.9854680860046873</v>
       </c>
     </row>
     <row r="9">
@@ -3295,19 +3295,19 @@
         <v>12427</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6760</v>
+        <v>7523</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18921</v>
+        <v>18359</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2351271332070863</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1278959323527833</v>
+        <v>0.1423469986822527</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3579969602529801</v>
+        <v>0.347361889302724</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3329,19 +3329,19 @@
         <v>12427</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6712</v>
+        <v>6820</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19296</v>
+        <v>19518</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1325358942112578</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07158860495748635</v>
+        <v>0.07273632249312041</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2057920082077577</v>
+        <v>0.2081644141837582</v>
       </c>
     </row>
     <row r="11">
@@ -3358,19 +3358,19 @@
         <v>40426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33932</v>
+        <v>34494</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>46093</v>
+        <v>45330</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7648728667929137</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6420030397470202</v>
+        <v>0.6526381106972757</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8721040676472167</v>
+        <v>0.8576530013177471</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -3392,19 +3392,19 @@
         <v>81337</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>74468</v>
+        <v>74246</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>87052</v>
+        <v>86944</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8674641057887422</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7942079917922423</v>
+        <v>0.7918355858162418</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9284113950425136</v>
+        <v>0.9272636775068795</v>
       </c>
     </row>
     <row r="12">
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6658</v>
+        <v>6804</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06187174506923818</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2096039395520826</v>
+        <v>0.2141882583344408</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5751</v>
+        <v>6212</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03994610727741917</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1168905982713259</v>
+        <v>0.1262572847654412</v>
       </c>
     </row>
     <row r="14">
@@ -3559,7 +3559,7 @@
         <v>29802</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25109</v>
+        <v>24963</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>31767</v>
@@ -3568,7 +3568,7 @@
         <v>0.9381282549307618</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7903960604479174</v>
+        <v>0.7858117416655588</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>47238</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>43453</v>
+        <v>42992</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>49204</v>
@@ -3602,7 +3602,7 @@
         <v>0.9600538927225808</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8831094017286746</v>
+        <v>0.873742715234559</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -3697,19 +3697,19 @@
         <v>4030</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1027</v>
+        <v>1056</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7463</v>
+        <v>7546</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3059808322209414</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07793794435917728</v>
+        <v>0.08015714735077396</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.566577470968013</v>
+        <v>0.5728648926836619</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3731,19 +3731,19 @@
         <v>4031</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1059</v>
+        <v>1035</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8994</v>
+        <v>9057</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.122245149119622</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0321172899307106</v>
+        <v>0.03140169308685946</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2727781768300017</v>
+        <v>0.2746840371421649</v>
       </c>
     </row>
     <row r="17">
@@ -3760,19 +3760,19 @@
         <v>9142</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5709</v>
+        <v>5626</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12145</v>
+        <v>12116</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6940191677790586</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4334225290319876</v>
+        <v>0.4271351073163426</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9220620556408229</v>
+        <v>0.9198428526492261</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -3794,19 +3794,19 @@
         <v>28940</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23977</v>
+        <v>23914</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31912</v>
+        <v>31936</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8777548508803781</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7272218231699978</v>
+        <v>0.7253159628578352</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9678827100692894</v>
+        <v>0.9685983069131405</v>
       </c>
     </row>
     <row r="18">
@@ -3898,19 +3898,19 @@
         <v>6720</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2811</v>
+        <v>2899</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11822</v>
+        <v>12541</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2214219467907821</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09263162197733871</v>
+        <v>0.0955042777429336</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3895092935787251</v>
+        <v>0.4131892452484544</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -3919,19 +3919,19 @@
         <v>3692</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10226</v>
+        <v>10634</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.104246232060195</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02794813615542359</v>
+        <v>0.02789423054382498</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2887510339469128</v>
+        <v>0.3002739545944783</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -3940,19 +3940,19 @@
         <v>10412</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5530</v>
+        <v>4894</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17904</v>
+        <v>17501</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1583232529360274</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08408051911807882</v>
+        <v>0.07441584494564361</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2722444469028348</v>
+        <v>0.2661067385128095</v>
       </c>
     </row>
     <row r="20">
@@ -3969,19 +3969,19 @@
         <v>23631</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18529</v>
+        <v>17810</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27540</v>
+        <v>27452</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7785780532092179</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6104907064212751</v>
+        <v>0.5868107547515456</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9073683780226613</v>
+        <v>0.9044957222570663</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -3990,19 +3990,19 @@
         <v>31723</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25189</v>
+        <v>24781</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34425</v>
+        <v>34427</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.895753767939805</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7112489660530873</v>
+        <v>0.6997260454055229</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9720518638445764</v>
+        <v>0.972105769456175</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>52</v>
@@ -4011,19 +4011,19 @@
         <v>55354</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>47862</v>
+        <v>48265</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>60236</v>
+        <v>60872</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8416767470639726</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7277555530971654</v>
+        <v>0.7338932614871905</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9159194808819212</v>
+        <v>0.9255841550543564</v>
       </c>
     </row>
     <row r="21">
@@ -4115,19 +4115,19 @@
         <v>27954</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19794</v>
+        <v>19924</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36848</v>
+        <v>35350</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.425154168938491</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3010465297488429</v>
+        <v>0.3030173786333313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5604226808128596</v>
+        <v>0.5376303118199189</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -4136,19 +4136,19 @@
         <v>4616</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1171</v>
+        <v>1140</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10343</v>
+        <v>10602</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07870055029930033</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01995702056884639</v>
+        <v>0.01943269497649393</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1763468310939661</v>
+        <v>0.1807650402030598</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -4157,19 +4157,19 @@
         <v>32570</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23510</v>
+        <v>22902</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42330</v>
+        <v>43186</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2618128199416517</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1889818583777357</v>
+        <v>0.1840928294666287</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3402621200146874</v>
+        <v>0.3471495855057006</v>
       </c>
     </row>
     <row r="23">
@@ -4186,19 +4186,19 @@
         <v>37797</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28903</v>
+        <v>30401</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45957</v>
+        <v>45827</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5748458310615091</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4395773191871408</v>
+        <v>0.4623696881800811</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6989534702511572</v>
+        <v>0.6969826213666688</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>51</v>
@@ -4207,19 +4207,19 @@
         <v>54036</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>48309</v>
+        <v>48050</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>57481</v>
+        <v>57512</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9212994497006997</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8236531689060343</v>
+        <v>0.8192349597969403</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9800429794311536</v>
+        <v>0.9805673050235061</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>87</v>
@@ -4228,19 +4228,19 @@
         <v>91833</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>82073</v>
+        <v>81217</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>100893</v>
+        <v>101501</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7381871800583483</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6597378799853124</v>
+        <v>0.6528504144942995</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8110181416222642</v>
+        <v>0.8159071705333713</v>
       </c>
     </row>
     <row r="24">
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6880</v>
+        <v>6898</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09232477945805563</v>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.286526414508865</v>
+        <v>0.2872407213581486</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9657</v>
+        <v>9833</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1249947974359363</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.381499217221122</v>
+        <v>0.3884762327882771</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -4374,19 +4374,19 @@
         <v>5381</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12366</v>
+        <v>11877</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1090902022937298</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02445354726183377</v>
+        <v>0.02451533204577258</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2507072675884955</v>
+        <v>0.2407797328931353</v>
       </c>
     </row>
     <row r="26">
@@ -4403,7 +4403,7 @@
         <v>21796</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17133</v>
+        <v>17115</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>24013</v>
@@ -4412,7 +4412,7 @@
         <v>0.9076752205419444</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.713473585491135</v>
+        <v>0.7127592786418528</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -4424,7 +4424,7 @@
         <v>22149</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>15656</v>
+        <v>15480</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>25313</v>
@@ -4433,7 +4433,7 @@
         <v>0.8750052025640638</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6185007827788782</v>
+        <v>0.6115237672117224</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -4445,19 +4445,19 @@
         <v>43945</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>36960</v>
+        <v>37449</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>48120</v>
+        <v>48117</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8909097977062702</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7492927324115055</v>
+        <v>0.7592202671068647</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9755464527381663</v>
+        <v>0.9754846679542274</v>
       </c>
     </row>
     <row r="27">
@@ -4549,19 +4549,19 @@
         <v>62196</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>48712</v>
+        <v>48879</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>76925</v>
+        <v>75865</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2167323394876638</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1697446666138158</v>
+        <v>0.1703270719971355</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2680569748954998</v>
+        <v>0.264364232308139</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>11</v>
@@ -4570,19 +4570,19 @@
         <v>13446</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7252</v>
+        <v>6739</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24302</v>
+        <v>23207</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05264687529362158</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.028392660922409</v>
+        <v>0.02638448427848218</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.095152351366646</v>
+        <v>0.09086444810774015</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>73</v>
@@ -4591,19 +4591,19 @@
         <v>75642</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>60898</v>
+        <v>60005</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>94648</v>
+        <v>93715</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1394646422901578</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1122796934474893</v>
+        <v>0.1106338499174912</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1745055905008146</v>
+        <v>0.1727862370158598</v>
       </c>
     </row>
     <row r="29">
@@ -4620,19 +4620,19 @@
         <v>224776</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>210047</v>
+        <v>211107</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>238260</v>
+        <v>238093</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7832676605123362</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7319430251045</v>
+        <v>0.7356357676918609</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.830255333386184</v>
+        <v>0.8296729280028644</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>228</v>
@@ -4641,19 +4641,19 @@
         <v>241959</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>231103</v>
+        <v>232198</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>248153</v>
+        <v>248666</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9473531247063784</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9048476486333538</v>
+        <v>0.9091355518922601</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9716073390775908</v>
+        <v>0.9736155157215179</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>441</v>
@@ -4662,19 +4662,19 @@
         <v>466735</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>447729</v>
+        <v>448662</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>481479</v>
+        <v>482372</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8605353577098422</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8254944094991854</v>
+        <v>0.8272137629841403</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8877203065525108</v>
+        <v>0.8893661500825089</v>
       </c>
     </row>
     <row r="30">
@@ -5010,19 +5010,19 @@
         <v>4509</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1139</v>
+        <v>1095</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9807</v>
+        <v>9004</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2347860997975491</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05931851059685064</v>
+        <v>0.05701115082662862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5106078494784714</v>
+        <v>0.468795048932117</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -5031,19 +5031,19 @@
         <v>6150</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2202</v>
+        <v>2794</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11500</v>
+        <v>11570</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2037368532229079</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07294101574491721</v>
+        <v>0.09254921898571011</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3809471581273953</v>
+        <v>0.3832780639647693</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -5052,19 +5052,19 @@
         <v>10660</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5680</v>
+        <v>5555</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17009</v>
+        <v>17808</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2158097482506554</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1150029335542278</v>
+        <v>0.1124570186204108</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3443624493069559</v>
+        <v>0.3605388307584292</v>
       </c>
     </row>
     <row r="5">
@@ -5081,19 +5081,19 @@
         <v>14697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9399</v>
+        <v>10202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18067</v>
+        <v>18111</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7652139002024509</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4893921505215286</v>
+        <v>0.5312049510678831</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9406814894031493</v>
+        <v>0.9429888491733714</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -5102,19 +5102,19 @@
         <v>24038</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18688</v>
+        <v>18618</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27986</v>
+        <v>27394</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7962631467770921</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6190528418726049</v>
+        <v>0.6167219360352305</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9270589842550828</v>
+        <v>0.9074507810142899</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -5123,19 +5123,19 @@
         <v>38734</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32385</v>
+        <v>31586</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43714</v>
+        <v>43839</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7841902517493445</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6556375506930439</v>
+        <v>0.6394611692415709</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8849970664457721</v>
+        <v>0.8875429813795894</v>
       </c>
     </row>
     <row r="6">
@@ -5227,19 +5227,19 @@
         <v>3067</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7388</v>
+        <v>7550</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1670774975562719</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05283888839310592</v>
+        <v>0.05244575789223173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4024514781514926</v>
+        <v>0.4112753506282685</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6347</v>
+        <v>6337</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1251087923768248</v>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3997415246255424</v>
+        <v>0.3991099223643171</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -5269,19 +5269,19 @@
         <v>5054</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1970</v>
+        <v>1959</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10185</v>
+        <v>10485</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1476130348945033</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05755576605816063</v>
+        <v>0.05723455025510265</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2975131782061157</v>
+        <v>0.3062647472070409</v>
       </c>
     </row>
     <row r="8">
@@ -5298,19 +5298,19 @@
         <v>15290</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10969</v>
+        <v>10807</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17387</v>
+        <v>17394</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8329225024437281</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5975485218485074</v>
+        <v>0.5887246493717317</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9471611116068941</v>
+        <v>0.9475542421077683</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -5319,7 +5319,7 @@
         <v>13892</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9531</v>
+        <v>9541</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>15878</v>
@@ -5328,7 +5328,7 @@
         <v>0.8748912076231752</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6002584753744582</v>
+        <v>0.6008900776356828</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -5340,19 +5340,19 @@
         <v>29181</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>24050</v>
+        <v>23750</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32265</v>
+        <v>32276</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8523869651054967</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7024868217938842</v>
+        <v>0.6937352527929591</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9424442339418394</v>
+        <v>0.9427654497448974</v>
       </c>
     </row>
     <row r="9">
@@ -5444,19 +5444,19 @@
         <v>3479</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9350</v>
+        <v>8602</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1497547158282854</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04133468996694072</v>
+        <v>0.04159953577581666</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4024631706624937</v>
+        <v>0.3702888752847194</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -5478,19 +5478,19 @@
         <v>3479</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9349</v>
+        <v>9316</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09374076305071911</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0255395786586077</v>
+        <v>0.02504326779132302</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2519140745031231</v>
+        <v>0.2510337949682964</v>
       </c>
     </row>
     <row r="11">
@@ -5507,19 +5507,19 @@
         <v>19752</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13881</v>
+        <v>14629</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22271</v>
+        <v>22265</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8502452841717146</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5975368293375075</v>
+        <v>0.6297111247152812</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9586653100330593</v>
+        <v>0.9584004642241833</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -5541,19 +5541,19 @@
         <v>33633</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>27763</v>
+        <v>27796</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36164</v>
+        <v>36183</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9062592369492809</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7480859254968767</v>
+        <v>0.7489662050317036</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9744604213413923</v>
+        <v>0.974956732208677</v>
       </c>
     </row>
     <row r="12">
@@ -5645,19 +5645,19 @@
         <v>5480</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1993</v>
+        <v>1943</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11834</v>
+        <v>11694</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1427312604978891</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05190815757371479</v>
+        <v>0.05059700059589265</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3082378737835915</v>
+        <v>0.3045834217412875</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -5666,19 +5666,19 @@
         <v>2823</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>813</v>
+        <v>839</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7550</v>
+        <v>7286</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07761890732084045</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02236257663505328</v>
+        <v>0.02307073245209428</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2075915757083645</v>
+        <v>0.2003309175877672</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -5687,19 +5687,19 @@
         <v>8303</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3628</v>
+        <v>3772</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14754</v>
+        <v>15748</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1110551920081846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04852361214416216</v>
+        <v>0.05045331781299847</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1973425088179471</v>
+        <v>0.2106327298589597</v>
       </c>
     </row>
     <row r="14">
@@ -5716,19 +5716,19 @@
         <v>32912</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26558</v>
+        <v>26698</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36399</v>
+        <v>36449</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8572687395021109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6917621262164084</v>
+        <v>0.6954165782587124</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9480918424262852</v>
+        <v>0.9494029994041073</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -5737,19 +5737,19 @@
         <v>33548</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28821</v>
+        <v>29085</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35558</v>
+        <v>35532</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9223810926791596</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7924084242916345</v>
+        <v>0.7996690824122327</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9776374233649466</v>
+        <v>0.9769292675479058</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>58</v>
@@ -5758,19 +5758,19 @@
         <v>66460</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>60009</v>
+        <v>59015</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>71135</v>
+        <v>70991</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8889448079918154</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8026574911820529</v>
+        <v>0.7893672701410402</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.951476387855838</v>
+        <v>0.9495466821870014</v>
       </c>
     </row>
     <row r="15">
@@ -5862,19 +5862,19 @@
         <v>2836</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6487</v>
+        <v>5685</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2801335506564682</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08888041541978045</v>
+        <v>0.08689778453985285</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6407552040643879</v>
+        <v>0.5615136911626383</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4124</v>
+        <v>3357</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2321966754176463</v>
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9098346891005507</v>
+        <v>0.7405843998381397</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -5904,19 +5904,19 @@
         <v>3889</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>915</v>
+        <v>1048</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6951</v>
+        <v>7837</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.265307483076869</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0624603255067097</v>
+        <v>0.07147167035927143</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4742431939259922</v>
+        <v>0.5346905958528361</v>
       </c>
     </row>
     <row r="17">
@@ -5933,19 +5933,19 @@
         <v>7288</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3637</v>
+        <v>4439</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9224</v>
+        <v>9244</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7198664493435317</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3592447959356124</v>
+        <v>0.4384863088373617</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9111195845802196</v>
+        <v>0.9131022154601472</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -5954,7 +5954,7 @@
         <v>3480</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>409</v>
+        <v>1176</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>4533</v>
@@ -5963,7 +5963,7 @@
         <v>0.7678033245823537</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09016531089946186</v>
+        <v>0.2594156001618603</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -5975,19 +5975,19 @@
         <v>10768</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7706</v>
+        <v>6820</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13742</v>
+        <v>13609</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7346925169231311</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5257568060740079</v>
+        <v>0.4653094041471639</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9375396744932902</v>
+        <v>0.9285283296407285</v>
       </c>
     </row>
     <row r="18">
@@ -6079,19 +6079,19 @@
         <v>3963</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1021</v>
+        <v>985</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8899</v>
+        <v>8235</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1445394556980035</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03725599260630814</v>
+        <v>0.0359281156678277</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3245798659678541</v>
+        <v>0.3003439729179104</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -6113,19 +6113,19 @@
         <v>3963</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9360</v>
+        <v>9713</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06203949527493135</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01552991368200216</v>
+        <v>0.01555856868279499</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1465346338176266</v>
+        <v>0.152051376890934</v>
       </c>
     </row>
     <row r="20">
@@ -6142,19 +6142,19 @@
         <v>23454</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18518</v>
+        <v>19182</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26396</v>
+        <v>26432</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8554605443019965</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6754201340321458</v>
+        <v>0.6996560270820898</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9627440073936918</v>
+        <v>0.9640718843321723</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -6176,19 +6176,19 @@
         <v>59914</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54517</v>
+        <v>54164</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>62885</v>
+        <v>62883</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9379605047250686</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8534653661823731</v>
+        <v>0.8479486231090662</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9844700863179978</v>
+        <v>0.984441431317205</v>
       </c>
     </row>
     <row r="21">
@@ -6280,19 +6280,19 @@
         <v>4238</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9765</v>
+        <v>8827</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1603122509659662</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04054537608134481</v>
+        <v>0.04003200813057236</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3693646601316576</v>
+        <v>0.3338871306671048</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5566</v>
+        <v>5203</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03742655289549331</v>
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.203093765791664</v>
+        <v>0.1898335759013141</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -6322,19 +6322,19 @@
         <v>5264</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2089</v>
+        <v>2074</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11903</v>
+        <v>10876</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09776173938810387</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03880609956262435</v>
+        <v>0.03851424688152388</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2210683007410118</v>
+        <v>0.2019973367738474</v>
       </c>
     </row>
     <row r="23">
@@ -6351,19 +6351,19 @@
         <v>22198</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16671</v>
+        <v>17609</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25364</v>
+        <v>25378</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8396877490340338</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6306353398683425</v>
+        <v>0.6661128693328953</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9594546239186551</v>
+        <v>0.9599679918694277</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>24</v>
@@ -6372,7 +6372,7 @@
         <v>26381</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>21841</v>
+        <v>22204</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>27407</v>
@@ -6381,7 +6381,7 @@
         <v>0.9625734471045067</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7969062342083358</v>
+        <v>0.8101664240986862</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -6393,19 +6393,19 @@
         <v>48579</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>41940</v>
+        <v>42967</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>51754</v>
+        <v>51769</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9022382606118962</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7789316992589882</v>
+        <v>0.7980026632261527</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9611939004373756</v>
+        <v>0.9614857531184762</v>
       </c>
     </row>
     <row r="24">
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6514</v>
+        <v>6817</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05693369566880654</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1882242665589817</v>
+        <v>0.1969775194973246</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -6521,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5553</v>
+        <v>5479</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0403812880790727</v>
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2076990074352408</v>
+        <v>0.2049286212734983</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -6539,19 +6539,19 @@
         <v>3050</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>918</v>
+        <v>948</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8241</v>
+        <v>8127</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04971932544497067</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01497101298691164</v>
+        <v>0.01545450815285054</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1343395907223199</v>
+        <v>0.1324810593142543</v>
       </c>
     </row>
     <row r="26">
@@ -6568,7 +6568,7 @@
         <v>32636</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28092</v>
+        <v>27789</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>34606</v>
@@ -6577,7 +6577,7 @@
         <v>0.9430663043311934</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8117757334410187</v>
+        <v>0.8030224805026754</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -6589,7 +6589,7 @@
         <v>25656</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>21183</v>
+        <v>21257</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>26736</v>
@@ -6598,7 +6598,7 @@
         <v>0.9596187119209273</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7923009925647592</v>
+        <v>0.795071378726502</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -6610,19 +6610,19 @@
         <v>58292</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>53101</v>
+        <v>53215</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>60424</v>
+        <v>60394</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9502806745550293</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8656604092776803</v>
+        <v>0.8675189406857456</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9850289870130884</v>
+        <v>0.9845454918471495</v>
       </c>
     </row>
     <row r="27">
@@ -6714,19 +6714,19 @@
         <v>29542</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19971</v>
+        <v>20516</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41006</v>
+        <v>41292</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1493770723618271</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1009837460447371</v>
+        <v>0.1037346767917693</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2073407684596927</v>
+        <v>0.2087899847800534</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -6735,19 +6735,19 @@
         <v>14118</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8168</v>
+        <v>7254</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>22691</v>
+        <v>22559</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07374054388422088</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04266470319071783</v>
+        <v>0.0378881539605784</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1185212447961957</v>
+        <v>0.1178279159451271</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>42</v>
@@ -6756,19 +6756,19 @@
         <v>43660</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>32600</v>
+        <v>32712</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>56805</v>
+        <v>57937</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1121724938987589</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08375766558011472</v>
+        <v>0.08404559819152103</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1459445614901437</v>
+        <v>0.1488528703542169</v>
       </c>
     </row>
     <row r="29">
@@ -6785,19 +6785,19 @@
         <v>168227</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>156763</v>
+        <v>156477</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>177798</v>
+        <v>177253</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8506229276381729</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7926592315403073</v>
+        <v>0.7912100152199467</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.899016253955263</v>
+        <v>0.8962653232082307</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>158</v>
@@ -6806,19 +6806,19 @@
         <v>177335</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>168762</v>
+        <v>168894</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>183285</v>
+        <v>184199</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9262594561157791</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8814787552038044</v>
+        <v>0.8821720840548731</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9573352968092821</v>
+        <v>0.962111846039422</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>321</v>
@@ -6827,19 +6827,19 @@
         <v>345563</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>332418</v>
+        <v>331286</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>356623</v>
+        <v>356511</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8878275061012412</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8540554385098564</v>
+        <v>0.8511471296457833</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9162423344198852</v>
+        <v>0.915954401808479</v>
       </c>
     </row>
     <row r="30">
@@ -7175,19 +7175,19 @@
         <v>3695</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>967</v>
+        <v>902</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8789</v>
+        <v>8383</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1366458247279665</v>
+        <v>0.1366458247279664</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03575796512082993</v>
+        <v>0.03334111726940785</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3250314207056568</v>
+        <v>0.3100186272767116</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -7196,19 +7196,19 @@
         <v>2925</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1010</v>
+        <v>991</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5846</v>
+        <v>5446</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09610789803179308</v>
+        <v>0.09610789803179309</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03319933045292597</v>
+        <v>0.0325574750246002</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1920954357942274</v>
+        <v>0.1789288921646913</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -7217,19 +7217,19 @@
         <v>6620</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3274</v>
+        <v>3535</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12069</v>
+        <v>11698</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1151792597070993</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05696321121117168</v>
+        <v>0.06150376963000364</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2099948517211257</v>
+        <v>0.2035311031095602</v>
       </c>
     </row>
     <row r="5">
@@ -7246,19 +7246,19 @@
         <v>23344</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18250</v>
+        <v>18656</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26072</v>
+        <v>26137</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8633541752720336</v>
+        <v>0.8633541752720335</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.674968579294343</v>
+        <v>0.6899813727232883</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9642420348791702</v>
+        <v>0.9666588827305922</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -7267,19 +7267,19 @@
         <v>27510</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24589</v>
+        <v>24989</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29425</v>
+        <v>29444</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9038921019682068</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8079045642057726</v>
+        <v>0.8210711078353087</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.966800669547074</v>
+        <v>0.9674425249753998</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -7288,19 +7288,19 @@
         <v>50854</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>45405</v>
+        <v>45776</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54200</v>
+        <v>53939</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8848207402929006</v>
+        <v>0.8848207402929005</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.790005148278874</v>
+        <v>0.796468896890439</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9430367887888281</v>
+        <v>0.9384962303699964</v>
       </c>
     </row>
     <row r="6">
@@ -7392,19 +7392,19 @@
         <v>5598</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1722</v>
+        <v>1478</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12239</v>
+        <v>11849</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2266240711806208</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06971391120009815</v>
+        <v>0.05981569022622126</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4954304595728988</v>
+        <v>0.4796716546410134</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -7426,19 +7426,19 @@
         <v>5598</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1562</v>
+        <v>1378</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13343</v>
+        <v>12654</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09419573982026339</v>
+        <v>0.09419573982026336</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02627983033774937</v>
+        <v>0.02318617315683204</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2245004857427013</v>
+        <v>0.2129155469742894</v>
       </c>
     </row>
     <row r="8">
@@ -7455,19 +7455,19 @@
         <v>19105</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12464</v>
+        <v>12854</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22981</v>
+        <v>23225</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7733759288193791</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5045695404271014</v>
+        <v>0.5203283453589862</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9302860887999018</v>
+        <v>0.9401843097737788</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -7489,19 +7489,19 @@
         <v>53835</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>46090</v>
+        <v>46779</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>57871</v>
+        <v>58055</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9058042601797367</v>
+        <v>0.9058042601797366</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.775499514257299</v>
+        <v>0.7870844530257115</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9737201696622508</v>
+        <v>0.976813826843168</v>
       </c>
     </row>
     <row r="9">
@@ -7593,19 +7593,19 @@
         <v>6144</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2729</v>
+        <v>2892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10748</v>
+        <v>10733</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2753702781899883</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1223303850487324</v>
+        <v>0.1296345749624481</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4817489991637512</v>
+        <v>0.4810468573111015</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -7614,19 +7614,19 @@
         <v>3122</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>633</v>
+        <v>573</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8644</v>
+        <v>8230</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1168992335079092</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02371406378684179</v>
+        <v>0.02146848460301511</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3237033002108383</v>
+        <v>0.3081903216642585</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -7635,19 +7635,19 @@
         <v>9265</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4630</v>
+        <v>4762</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16075</v>
+        <v>14993</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1890317256593579</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09446684828080099</v>
+        <v>0.09715362132775685</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3279565636800583</v>
+        <v>0.3058941610661563</v>
       </c>
     </row>
     <row r="11">
@@ -7664,19 +7664,19 @@
         <v>16167</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11563</v>
+        <v>11578</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19582</v>
+        <v>19419</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7246297218100117</v>
+        <v>0.7246297218100118</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5182510008362488</v>
+        <v>0.5189531426888975</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8776696149512676</v>
+        <v>0.870365425037552</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -7685,19 +7685,19 @@
         <v>23583</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18061</v>
+        <v>18475</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26072</v>
+        <v>26132</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8831007664920908</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6762966997891615</v>
+        <v>0.6918096783357414</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.976285936213158</v>
+        <v>0.9785315153969849</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>62</v>
@@ -7706,19 +7706,19 @@
         <v>39750</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32940</v>
+        <v>34022</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44385</v>
+        <v>44253</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8109682743406422</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6720434363199419</v>
+        <v>0.6941058389338439</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.905533151719199</v>
+        <v>0.9028463786722432</v>
       </c>
     </row>
     <row r="12">
@@ -7810,19 +7810,19 @@
         <v>11154</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4149</v>
+        <v>4590</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19544</v>
+        <v>19606</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3970041070732534</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1476862934846015</v>
+        <v>0.1633777120742228</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6955973884562872</v>
+        <v>0.6978267869518735</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4423</v>
+        <v>3802</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03775774030399685</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2279928413955442</v>
+        <v>0.1960097642384074</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -7852,19 +7852,19 @@
         <v>11886</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4793</v>
+        <v>4880</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22960</v>
+        <v>23273</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2502729759956207</v>
+        <v>0.2502729759956205</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1009199831686675</v>
+        <v>0.1027597933999184</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4834362297834627</v>
+        <v>0.4900256501044823</v>
       </c>
     </row>
     <row r="14">
@@ -7881,19 +7881,19 @@
         <v>16942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8552</v>
+        <v>8490</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23947</v>
+        <v>23506</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6029958929267466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3044026115437127</v>
+        <v>0.3021732130481264</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8523137065153984</v>
+        <v>0.8366222879257771</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -7902,16 +7902,16 @@
         <v>18667</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14976</v>
+        <v>15597</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>19399</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9622422596960032</v>
+        <v>0.962242259696003</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7720071586044543</v>
+        <v>0.8039902357615948</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -7923,19 +7923,19 @@
         <v>35608</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24534</v>
+        <v>24221</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42701</v>
+        <v>42614</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7497270240043793</v>
+        <v>0.7497270240043792</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5165637702165363</v>
+        <v>0.5099743498955178</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8990800168313327</v>
+        <v>0.8972402066000814</v>
       </c>
     </row>
     <row r="15">
@@ -8030,16 +8030,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4183</v>
+        <v>4063</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.134293222799317</v>
+        <v>0.1342932227993169</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.558352085408312</v>
+        <v>0.5423805400481598</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4134</v>
+        <v>4270</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1254909535674548</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5157709946339636</v>
+        <v>0.5327321707336765</v>
       </c>
     </row>
     <row r="17">
@@ -8090,7 +8090,7 @@
         <v>6485</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3308</v>
+        <v>3427</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>7491</v>
@@ -8099,7 +8099,7 @@
         <v>0.8657067772006831</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4416479145916877</v>
+        <v>0.4575401738367944</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -8124,7 +8124,7 @@
         <v>7010</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3882</v>
+        <v>3746</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>8016</v>
@@ -8133,7 +8133,7 @@
         <v>0.8745090464325453</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4842290053660364</v>
+        <v>0.4672678292663234</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -8228,19 +8228,19 @@
         <v>6767</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3127</v>
+        <v>3020</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11337</v>
+        <v>10944</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2600828674409442</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1201692775607631</v>
+        <v>0.1160821044684561</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4357423430643822</v>
+        <v>0.4206400649943942</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -8252,16 +8252,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3115</v>
+        <v>2358</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01934394899662023</v>
+        <v>0.01934394899662024</v>
       </c>
       <c r="O19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1107498778655267</v>
+        <v>0.08382102106984857</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -8270,19 +8270,19 @@
         <v>7311</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3809</v>
+        <v>3541</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12908</v>
+        <v>12438</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1350187635760855</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0703470408690549</v>
+        <v>0.06538965366256595</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2383917024820482</v>
+        <v>0.2297057381268013</v>
       </c>
     </row>
     <row r="20">
@@ -8299,19 +8299,19 @@
         <v>19251</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14681</v>
+        <v>15074</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22891</v>
+        <v>22998</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7399171325590559</v>
+        <v>0.7399171325590558</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5642576569356178</v>
+        <v>0.5793599350056057</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8798307224392369</v>
+        <v>0.883917895531544</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>62</v>
@@ -8320,7 +8320,7 @@
         <v>27586</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25015</v>
+        <v>25772</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>28130</v>
@@ -8329,7 +8329,7 @@
         <v>0.9806560510033797</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8892501221344732</v>
+        <v>0.9161789789301508</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -8341,19 +8341,19 @@
         <v>46837</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>41240</v>
+        <v>41710</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>50339</v>
+        <v>50607</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8649812364239146</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7616082975179519</v>
+        <v>0.7702942618731987</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9296529591309453</v>
+        <v>0.9346103463374341</v>
       </c>
     </row>
     <row r="21">
@@ -8445,19 +8445,19 @@
         <v>7066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2814</v>
+        <v>2543</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14463</v>
+        <v>13984</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1266315228057785</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05042064561014715</v>
+        <v>0.04557291740462473</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2591809879214676</v>
+        <v>0.2506014279775439</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -8466,19 +8466,19 @@
         <v>5691</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2568</v>
+        <v>2632</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10317</v>
+        <v>10276</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.09740122305411168</v>
+        <v>0.09740122305411171</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04394224458013479</v>
+        <v>0.04504493494970011</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1765645167067159</v>
+        <v>0.1758525761932935</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -8487,19 +8487,19 @@
         <v>12758</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7096</v>
+        <v>7365</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22010</v>
+        <v>20598</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1116799356880313</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06212013462845802</v>
+        <v>0.06447465051273599</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1926753460974594</v>
+        <v>0.1803086190054211</v>
       </c>
     </row>
     <row r="23">
@@ -8516,19 +8516,19 @@
         <v>48737</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>41340</v>
+        <v>41819</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52989</v>
+        <v>53260</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8733684771942216</v>
+        <v>0.8733684771942215</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7408190120785325</v>
+        <v>0.749398572022456</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9495793543898529</v>
+        <v>0.9544270825953752</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>68</v>
@@ -8537,19 +8537,19 @@
         <v>52742</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>48116</v>
+        <v>48157</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>55865</v>
+        <v>55801</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9025987769458882</v>
+        <v>0.9025987769458884</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8234354832932839</v>
+        <v>0.8241474238067054</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9560577554198652</v>
+        <v>0.9549550650502995</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>106</v>
@@ -8558,19 +8558,19 @@
         <v>101478</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>92226</v>
+        <v>93638</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>107140</v>
+        <v>106871</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8883200643119689</v>
+        <v>0.8883200643119687</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8073246539025405</v>
+        <v>0.8196913809945792</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.937879865371542</v>
+        <v>0.9355253494872642</v>
       </c>
     </row>
     <row r="24">
@@ -8662,19 +8662,19 @@
         <v>8076</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3341</v>
+        <v>3510</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14249</v>
+        <v>14683</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2838707522946042</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1174236225597188</v>
+        <v>0.1233701713407805</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5008372350979395</v>
+        <v>0.5161120053503114</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -8683,19 +8683,19 @@
         <v>3555</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11383</v>
+        <v>10904</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1050970986476467</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02244078473829783</v>
+        <v>0.02268432470642002</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3365382353533733</v>
+        <v>0.3223867003730957</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -8704,19 +8704,19 @@
         <v>11631</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6175</v>
+        <v>6202</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20621</v>
+        <v>20265</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1867712704618964</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09916021776657276</v>
+        <v>0.0995976162327829</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3311373627678373</v>
+        <v>0.3254161471688122</v>
       </c>
     </row>
     <row r="26">
@@ -8733,19 +8733,19 @@
         <v>20374</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14201</v>
+        <v>13767</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25109</v>
+        <v>24940</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7161292477053959</v>
+        <v>0.7161292477053958</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4991627649020603</v>
+        <v>0.4838879946496886</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8825763774402813</v>
+        <v>0.8766298286592196</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>41</v>
@@ -8754,19 +8754,19 @@
         <v>30268</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22440</v>
+        <v>22919</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>33064</v>
+        <v>33056</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8949029013523535</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6634617646466302</v>
+        <v>0.6776132996269065</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9775592152617022</v>
+        <v>0.97731567529358</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>59</v>
@@ -8775,19 +8775,19 @@
         <v>50643</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>41653</v>
+        <v>42009</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>56099</v>
+        <v>56072</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8132287295381035</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6688626372321613</v>
+        <v>0.6745838528311879</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9008397822334272</v>
+        <v>0.9004023837672174</v>
       </c>
     </row>
     <row r="27">
@@ -8879,19 +8879,19 @@
         <v>49506</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36630</v>
+        <v>35410</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>65858</v>
+        <v>63881</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2251200706489317</v>
+        <v>0.2251200706489316</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1665661108627925</v>
+        <v>0.1610185385228425</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2994762012737923</v>
+        <v>0.2904873451088611</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>22</v>
@@ -8900,19 +8900,19 @@
         <v>16570</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10825</v>
+        <v>10055</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25386</v>
+        <v>26037</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07136526120448072</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0466227796313925</v>
+        <v>0.04330780801506204</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1093363204005175</v>
+        <v>0.1121418613028523</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>63</v>
@@ -8921,19 +8921,19 @@
         <v>66076</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>50893</v>
+        <v>51632</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>85760</v>
+        <v>85605</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1461563306711572</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1125718594342362</v>
+        <v>0.1142072073596716</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.189697352301953</v>
+        <v>0.1893544477406301</v>
       </c>
     </row>
     <row r="29">
@@ -8950,19 +8950,19 @@
         <v>170405</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>154053</v>
+        <v>156030</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>183281</v>
+        <v>184501</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7748799293510683</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7005237987262077</v>
+        <v>0.709512654891139</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8334338891372075</v>
+        <v>0.8389814614771575</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>337</v>
@@ -8971,19 +8971,19 @@
         <v>215610</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>206794</v>
+        <v>206143</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>221355</v>
+        <v>222125</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9286347387955193</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8906636795994827</v>
+        <v>0.8878581386971485</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9533772203686075</v>
+        <v>0.9566921919849378</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>507</v>
@@ -8992,19 +8992,19 @@
         <v>386015</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>366331</v>
+        <v>366486</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>401198</v>
+        <v>400459</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8538436693288426</v>
+        <v>0.8538436693288427</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8103026476980465</v>
+        <v>0.8106455522593707</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8874281405657634</v>
+        <v>0.8857927926403285</v>
       </c>
     </row>
     <row r="30">
